--- a/GenericScenarioEvaluation/Reviewed Scenarios/BB/Flexographic Printing Draft.xlsx
+++ b/GenericScenarioEvaluation/Reviewed Scenarios/BB/Flexographic Printing Draft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/barrett_williamm_epa_gov/Documents/Profile/Desktop/GS Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WBARRETT\Environmental Protection Agency (EPA)\CSS RA-2 Project Team - General\Bill Paper - Generic Scenario Review\Reviewed Scenarios\BB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="8_{D21B3DA9-9B20-429C-8408-69FD36AE1659}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{85A5C943-EC2D-4416-945E-B593D4867FF9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5503F39A-692F-4BCC-B7F8-51DCE037664F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AEE7231D-D110-46BA-BB08-35ECB9C6F51B}"/>
   </bookViews>
   <sheets>
     <sheet name="General Info" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="249">
   <si>
     <t>Included? (Y or N)</t>
   </si>
@@ -742,9 +742,6 @@
     <t>Generic (mg/person/day) = Cm × IR × H</t>
   </si>
   <si>
-    <t>Inhalation Exposur</t>
-  </si>
-  <si>
     <t>Prior to a production run, the potential exists for inhalation exposures for the workers transferring and mixing inks in the ink preparation room due to volatilization of PMN chemicals. One worker is exposed for four hours per shift.</t>
   </si>
   <si>
@@ -789,6 +786,15 @@
   </si>
   <si>
     <t>(1,300 -3,900) mg/day × PMN</t>
+  </si>
+  <si>
+    <t>Inhalation Exposure</t>
+  </si>
+  <si>
+    <t>Not Estimated</t>
+  </si>
+  <si>
+    <t>Assumed 0</t>
   </si>
 </sst>
 </file>
@@ -1225,7 +1231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A8DA8E-F055-4EAE-98B3-B13E29507A62}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1413,7 +1419,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE2C11F-6A25-4CA6-B493-2A0028270B50}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1467,10 +1475,14 @@
       <c r="C2" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
@@ -1482,10 +1494,14 @@
       <c r="C3" t="s">
         <v>216</v>
       </c>
-      <c r="D3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
+      <c r="G3" s="7" t="s">
+        <v>247</v>
+      </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
@@ -1497,6 +1513,15 @@
       <c r="C4" s="1" t="s">
         <v>218</v>
       </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1505,6 +1530,15 @@
       <c r="C5" s="1" t="s">
         <v>227</v>
       </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -1513,13 +1547,28 @@
       <c r="C6" s="1" t="s">
         <v>226</v>
       </c>
+      <c r="D6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="60" x14ac:dyDescent="0.25">
@@ -1527,23 +1576,50 @@
         <v>228</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="210" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C9" s="19" t="s">
         <v>233</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>234</v>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I9" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>243</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>244</v>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -1551,7 +1627,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{A0F14524-26CE-4B40-96EB-55127065C555}">
           <x14:formula1>
             <xm:f>EntryData!$D$2:$D$24</xm:f>
@@ -1574,7 +1650,19 @@
           <x14:formula1>
             <xm:f>EntryData!$M$2:$M$3</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G1048576</xm:sqref>
+          <xm:sqref>G4:G5 G7:G1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0E407F4-92B0-4BBE-965A-935BDD54354F}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>G2 G3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8BBCBEFB-9CA0-435D-8FDF-5EF3C51D838B}">
+          <x14:formula1>
+            <xm:f>EntryData!$M$2:$M$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>G6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1975,10 +2063,10 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1986,7 +2074,7 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I18" s="7"/>
       <c r="K18" s="7"/>
@@ -1998,7 +2086,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -2007,7 +2095,7 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I19" s="7"/>
       <c r="K19" s="7"/>
@@ -2019,7 +2107,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -2028,7 +2116,7 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I20" s="7"/>
       <c r="K20" s="7"/>
@@ -2040,7 +2128,7 @@
     </row>
     <row r="21" spans="1:16" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -2049,7 +2137,7 @@
       <c r="F21" s="17"/>
       <c r="G21" s="7"/>
       <c r="H21" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I21" s="7"/>
       <c r="K21" s="7"/>
@@ -2060,10 +2148,10 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>244</v>
+      </c>
+      <c r="B22" t="s">
         <v>245</v>
-      </c>
-      <c r="B22" t="s">
-        <v>246</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -2106,7 +2194,7 @@
   <dimension ref="A1:S61"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2194,6 +2282,9 @@
       <c r="F4" t="s">
         <v>136</v>
       </c>
+      <c r="M4" t="s">
+        <v>247</v>
+      </c>
       <c r="P4" t="s">
         <v>179</v>
       </c>
@@ -2207,6 +2298,9 @@
       </c>
       <c r="F5" t="s">
         <v>137</v>
+      </c>
+      <c r="M5" t="s">
+        <v>248</v>
       </c>
       <c r="P5" t="s">
         <v>173</v>
@@ -2672,45 +2766,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009F11D2A2FBBEED40A750386529AFE883" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a7fcd2fa88e0328b3b0dd9ef335fe48c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="241d41d8-5778-4e30-b44e-dee891c66b79" xmlns:ns6="af43f131-d884-42a1-ba66-3c1404ec48fc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6a2a87f8101accce6a0d0ea40fd00900" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -3143,21 +3212,85 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2021-03-04T14:13:47+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3189EB3E-86CE-4C4F-BB70-5AD02FFB951D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="241d41d8-5778-4e30-b44e-dee891c66b79"/>
+    <ds:schemaRef ds:uri="af43f131-d884-42a1-ba66-3c1404ec48fc"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F27FAEFF-543C-4C30-A571-905BD321BEF9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3176,24 +3309,4 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3189EB3E-86CE-4C4F-BB70-5AD02FFB951D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3227138-1B8A-4733-BA76-D224862EAA4A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E9A4B38-4D52-46C0-9803-4EB30CC27F1C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>